--- a/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE13F3D2-3E2D-6D42-919D-FDA9D63B3AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C046C-732C-494D-9F34-37B3CB567CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="14540" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="4" r:id="rId1"/>
@@ -416,47 +416,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EntelechyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiments/CIS_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.3_alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexIntelligenceSystem_python/Libraries/ModelsLibrary/model_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexIntelligenceSystem_python/Libraries/ParametersLibrary/parameters_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexIntelligenceSystem_python/Libraries/SettingsLibrary/settings_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置多进程的 CPU 核心数与该设备总的 CPU 核心数占比。默认 0.5；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义ECS方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高性能方案。可选参数值为："稀疏矩阵方案", "自定义ECS方案", "顺序遍历单个Agent方案"。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EntelechyEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntelechyData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experiments/CIS_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.0.3_alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComplexIntelligenceSystem_python/Libraries/ModelsLibrary/model_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComplexIntelligenceSystem_python/Libraries/ParametersLibrary/parameters_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComplexIntelligenceSystem_python/Libraries/SettingsLibrary/settings_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置多进程的 CPU 核心数与该设备总的 CPU 核心数占比。默认 0.5；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义ECS方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高性能方案。可选参数值为："稀疏矩阵方案", "自定义ECS方案", "顺序遍历单个Agent方案"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,16 +823,16 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="171.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -921,7 +921,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -946,7 +946,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -955,7 +955,7 @@
         <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1031,7 +1031,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1048,7 +1048,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1099,7 +1099,7 @@
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -1116,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -1133,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -1150,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1235,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>

--- a/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C046C-732C-494D-9F34-37B3CB567CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E9CFD3-D76D-8740-A8C4-E86626F8F315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="meta_表格配置表" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>下标开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,9 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批量实验作业运行模式</t>
-  </si>
-  <si>
     <t>引擎版本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,6 +454,70 @@
   </si>
   <si>
     <t>EntelechyEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folderpath_agents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexIntelligenceSystem_python/Libraries/AgentsLibrary/agents_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_idsExperiment_to_run</t>
+  </si>
+  <si>
+    <t>设置要运行的实验编号列表。默认 None，表示运行所有实验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[56, 1134, 1701, 2268, 2835, 3402, 3969, 4536]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_develope_mode</t>
+  </si>
+  <si>
+    <t>是否处于开发模型状态。默认 False。默认情况下，模拟器通在子进程独立启用相关的程序。启用之后，在模拟器中，将通过函数调用的方式调用各个程序。启用之后，适合在 Python 3.11 开始的版本做断点调试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果 is_develope_mode == True ，那么是否保留模拟器里的模型？默认 False。运行的时候只会运行模拟器里的模型，而不会运行外部导入的模型，运行后也不会将其删除。如果你想直接运行模拟器里的模型，并且做开发模型相关的工作，建议开启此项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>是否重新运行所有已经完成的实验。默认 False。如果为 True，则在实验运行之前，重置该实验组当中所有的实验作业运行状态为 "RAW"。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式观察运行模式</t>
+  </si>
+  <si>
+    <t>备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_maintain_model_files_in_simulator_when_develope_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_rerun_all_done_works_in_the_same_experiments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,26 +881,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="42" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="171.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="253.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -855,8 +917,11 @@
       <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -873,7 +938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -890,7 +955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -907,7 +972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -921,10 +986,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -941,12 +1006,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -955,15 +1020,15 @@
         <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -975,7 +1040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
@@ -992,7 +1057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -1009,12 +1074,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
@@ -1026,12 +1091,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1040,15 +1105,15 @@
         <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1060,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1077,12 +1142,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1094,12 +1159,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -1116,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -1133,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -1150,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1164,10 +1229,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -1176,15 +1241,15 @@
         <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -1193,12 +1258,12 @@
         <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>73</v>
@@ -1210,15 +1275,15 @@
         <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1227,15 +1292,15 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -1244,29 +1309,29 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -1278,100 +1343,100 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="b">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="2" t="b">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -1380,23 +1445,111 @@
         <v>81</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E28" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
-    <sortCondition ref="D4:D29"/>
+  <autoFilter ref="A1:F37" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+    <sortCondition ref="D4:D30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2:B14 B31:B32 B16:B28" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2:B14 B32:B33 B16:B29" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
       <formula1>"True,False"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B15" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
       <formula1>"稀疏矩阵方案,CellListMap方案,顺序遍历单个Agent方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
       <formula1>"交互式观察运行模式,批量实验作业运行模式"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E9CFD3-D76D-8740-A8C4-E86626F8F315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84382531-E90C-904A-A6AD-E998853C41B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="50900" windowHeight="28000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="meta_表格配置表" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
   <si>
     <t>下标开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,11 +513,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_prerun_config_program</t>
+  </si>
+  <si>
+    <t>布尔值</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>是否在实验主程序之前，预先运行了配置库相关的生成配置程序。默认 True；</t>
+  </si>
+  <si>
+    <t>is_prerun_parameters_program</t>
+  </si>
+  <si>
+    <t>是否在实验主程序之前，预先运行了参数库相关的生成参数的程序。默认 True；</t>
+  </si>
+  <si>
+    <t>[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +579,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="STZhongsong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -588,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -599,6 +624,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -881,13 +907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -921,46 +947,48 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="b">
+    <row r="2" spans="1:6" s="3" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="b">
+      <c r="C2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -969,185 +997,185 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="b">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1156,15 +1184,15 @@
         <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -1173,15 +1201,15 @@
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
@@ -1190,15 +1218,15 @@
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -1207,15 +1235,15 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1224,15 +1252,15 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -1246,10 +1274,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -1258,15 +1286,15 @@
         <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -1275,15 +1303,15 @@
         <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1292,15 +1320,15 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -1309,15 +1337,15 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -1326,66 +1354,66 @@
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -1394,80 +1422,80 @@
         <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="2" t="b">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="2" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="b">
         <v>1</v>
@@ -1476,35 +1504,32 @@
         <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
+      </c>
+      <c r="B35" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B36" s="2" t="b">
         <v>1</v>
@@ -1513,43 +1538,80 @@
         <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="2" t="b">
+      <c r="B39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F37" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
-    <sortCondition ref="D4:D30"/>
+  <autoFilter ref="A1:F39" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E32">
+    <sortCondition ref="D6:D32"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2:B14 B32:B33 B16:B29" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B4:B16 B34:B35 B18:B31" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B15" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B17" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
       <formula1>"稀疏矩阵方案,CellListMap方案,顺序遍历单个Agent方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
       <formula1>"交互式观察运行模式,批量实验作业运行模式"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84382531-E90C-904A-A6AD-E998853C41B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F39ACE-25FC-4248-901B-088CEB227AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="50900" windowHeight="28000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="4" r:id="rId1"/>
@@ -913,7 +913,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>

--- a/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F39ACE-25FC-4248-901B-088CEB227AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D61C8-F0EB-4742-AC3E-75CA029A8F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="meta_表格配置表" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
   <si>
     <t>下标开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否自动打开输出日志文件。默认 True；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代码段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_develope_model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>is_ignore_warning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,17 +472,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_develope_mode</t>
-  </si>
-  <si>
     <t>是否处于开发模型状态。默认 False。默认情况下，模拟器通在子进程独立启用相关的程序。启用之后，在模拟器中，将通过函数调用的方式调用各个程序。启用之后，适合在 Python 3.11 开始的版本做断点调试。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果 is_develope_mode == True ，那么是否保留模拟器里的模型？默认 False。运行的时候只会运行模拟器里的模型，而不会运行外部导入的模型，运行后也不会将其删除。如果你想直接运行模拟器里的模型，并且做开发模型相关的工作，建议开启此项。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发</t>
   </si>
   <si>
@@ -505,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_maintain_model_files_in_simulator_when_develope_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>is_rerun_all_done_works_in_the_same_experiments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,9 +507,6 @@
     <t>操作</t>
   </si>
   <si>
-    <t>是否在实验主程序之前，预先运行了配置库相关的生成配置程序。默认 True；</t>
-  </si>
-  <si>
     <t>is_prerun_parameters_program</t>
   </si>
   <si>
@@ -536,6 +514,74 @@
   </si>
   <si>
     <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动打开输出日志文件。默认 False；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_prerun_settings_program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在实验主程序之前，预先运行了设置库相关的生成参数的程序。默认 True；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_prerun_agents_program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在实验主程序之前，预先运行了个体众库相关的生成参数的程序。默认 True；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始数量。默认 1'000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运作单元总数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个运作单元最大连接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个神经元最大连接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经元总数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始数量。默认 10'000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始数量。默认 1'000'000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_develop_mode</t>
+  </si>
+  <si>
+    <t>is_maintain_model_files_in_simulator_when_develop_mode</t>
+  </si>
+  <si>
+    <t>如果 is_develop_mode == True ，那么是否保留模拟器里的模型？默认 False。运行的时候只会运行模拟器里的模型，而不会运行外部导入的模型，运行后也不会将其删除。如果你想直接运行模拟器里的模型，并且做开发模型相关的工作，建议开启此项。</t>
+  </si>
+  <si>
+    <t>is_develop_model</t>
+  </si>
+  <si>
+    <t>是否在实验主程序之前，预先运行了配置库相关的生成配置程序。默认 True。如果要用 False，那么不能用 Python 控制台运行，只能在终端用命令行运行。否则运行的时候不会继续推进。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -929,165 +975,171 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="4" t="b">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1">
+      <c r="A5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1">
+      <c r="A6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="4" t="b">
+      <c r="B7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1">
+      <c r="A8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="b">
+      <c r="B8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="b">
+      <c r="C8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="b">
         <v>1</v>
@@ -1096,15 +1148,15 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="b">
         <v>0</v>
@@ -1113,61 +1165,61 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1175,109 +1227,109 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>138</v>
+      </c>
+      <c r="B16" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -1286,15 +1338,15 @@
         <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -1303,15 +1355,15 @@
         <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1320,15 +1372,15 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -1337,15 +1389,15 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -1354,15 +1406,15 @@
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
@@ -1371,15 +1423,15 @@
         <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -1388,148 +1440,148 @@
         <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="b">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="2" t="b">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="2" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="b">
         <v>1</v>
@@ -1538,80 +1590,182 @@
         <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="2" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="2" t="b">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>113</v>
+      <c r="B42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F39" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E32">
-    <sortCondition ref="D6:D32"/>
+  <autoFilter ref="A1:F45" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E38">
+    <sortCondition ref="D12:D38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B4:B16 B34:B35 B18:B31" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B10:B22 B40:B41 B24:B37 B2:B5" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B17" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B23" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
       <formula1>"稀疏矩阵方案,CellListMap方案,顺序遍历单个Agent方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
       <formula1>"交互式观察运行模式,批量实验作业运行模式"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1642,30 +1796,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
